--- a/cloud_DevOps/Cloud_DevOps_Training_Refined_Upto_15_April.xlsx
+++ b/cloud_DevOps/Cloud_DevOps_Training_Refined_Upto_15_April.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\Elevare-Project\ITinfra-CloudCompute-Fund\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\DevOps-Bootcamp-30\cloud_DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368EDA6D-C592-4480-9944-9131D7F963E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9D25D3-D073-48B6-8D5A-05C59ACD7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>S.No</t>
   </si>
@@ -139,29 +139,30 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>DockerFile, Image , Run , push</t>
+  </si>
+  <si>
+    <t>Jenkins CICD Basic pipeline</t>
+  </si>
+  <si>
+    <t>Terraform : provision with EC2 , vpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K8s </t>
+  </si>
+  <si>
     <t>IT Infrastructure &amp; Career Orientation
-Aws Account, Launch Instance</t>
-  </si>
-  <si>
-    <t>Linux OS Basics
-Linux Commands &amp; File Permissions
-User, Process &amp; Service Management, sample app deploy on Ec2 
-Network (VPC), IGW</t>
-  </si>
-  <si>
-    <t>Git, GitHub : Clone, fork , 4stages, Branching, Merging , conflict , PR</t>
-  </si>
-  <si>
-    <t>DockerFile, Image , Run , push</t>
-  </si>
-  <si>
-    <t>Jenkins CICD Basic pipeline</t>
-  </si>
-  <si>
-    <t>Terraform : provision with EC2 , vpc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8s </t>
+Aws Account, Linux Basic command</t>
+  </si>
+  <si>
+    <t>Understanding DevOps
+Launch EC2 Instance, Deployed Java app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network VPC , S3,  </t>
+  </si>
+  <si>
+    <t>Maven Build, Git, GitHub : Clone, fork , 4stages, Branching, Merging , conflict , PR, Test</t>
   </si>
 </sst>
 </file>
@@ -531,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +574,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -583,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -591,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -601,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -609,7 +610,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -627,7 +628,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -645,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -663,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -681,7 +682,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -698,7 +699,9 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
         <v>3</v>

--- a/cloud_DevOps/Cloud_DevOps_Training_Refined_Upto_15_April.xlsx
+++ b/cloud_DevOps/Cloud_DevOps_Training_Refined_Upto_15_April.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\DevOps-Bootcamp-30\cloud_DevOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9D25D3-D073-48B6-8D5A-05C59ACD7C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BCEA67-2F62-4A47-AE0A-85E1D419D3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>S.No</t>
   </si>
@@ -139,16 +139,7 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>DockerFile, Image , Run , push</t>
-  </si>
-  <si>
-    <t>Jenkins CICD Basic pipeline</t>
-  </si>
-  <si>
     <t>Terraform : provision with EC2 , vpc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K8s </t>
   </si>
   <si>
     <t>IT Infrastructure &amp; Career Orientation
@@ -159,10 +150,23 @@
 Launch EC2 Instance, Deployed Java app</t>
   </si>
   <si>
-    <t xml:space="preserve">network VPC , S3,  </t>
-  </si>
-  <si>
-    <t>Maven Build, Git, GitHub : Clone, fork , 4stages, Branching, Merging , conflict , PR, Test</t>
+    <t>Maven Build, Lab , Intro GitHub, Git Init</t>
+  </si>
+  <si>
+    <t>4stages, Branching, Merging , conflict , PR, Test
+Intro Docker , Image , Run , push</t>
+  </si>
+  <si>
+    <t>Lab Docker DockerFile, Network VPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab Vpc, Jenkins CICD Basic setup </t>
+  </si>
+  <si>
+    <t>Jenkins pipeline, S3</t>
+  </si>
+  <si>
+    <t>K8s, linux permissions</t>
   </si>
 </sst>
 </file>
@@ -221,13 +225,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,17 +538,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.21875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -592,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -602,15 +607,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
@@ -620,15 +625,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -645,8 +650,8 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
@@ -663,8 +668,8 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -682,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
@@ -700,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -717,7 +722,9 @@
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
         <v>3</v>
@@ -743,6 +750,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
       <c r="E12">
         <f>SUM(E2:E11)</f>
         <v>30</v>
